--- a/test-release/xlsx-tests/schedule.xlsx
+++ b/test-release/xlsx-tests/schedule.xlsx
@@ -351,7 +351,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="181" zoomScaleNormal="181" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
